--- a/output/OutputData1.xlsx
+++ b/output/OutputData1.xlsx
@@ -6,14 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="TC-01" r:id="rId3" sheetId="1"/>
     <sheet name="TC-02" r:id="rId4" sheetId="2"/>
     <sheet name="TC-03" r:id="rId5" sheetId="3"/>
-    <sheet name="TC-05" r:id="rId6" sheetId="4"/>
-    <sheet name="TC-06" r:id="rId7" sheetId="5"/>
-    <sheet name="TC-07" r:id="rId8" sheetId="6"/>
-    <sheet name="TC-08" r:id="rId9" sheetId="7"/>
-    <sheet name="TC-09" r:id="rId10" sheetId="8"/>
+    <sheet name="TC-04" r:id="rId6" sheetId="4"/>
+    <sheet name="TC-05" r:id="rId7" sheetId="5"/>
+    <sheet name="TC-06" r:id="rId8" sheetId="6"/>
+    <sheet name="TC-07" r:id="rId9" sheetId="7"/>
+    <sheet name="TC-08" r:id="rId10" sheetId="8"/>
     <sheet name="TC-10" r:id="rId11" sheetId="9"/>
     <sheet name="TC-12" r:id="rId12" sheetId="10"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>TestCase-01</t>
   </si>
@@ -32,13 +32,13 @@
     <t>TestCase-02</t>
   </si>
   <si>
-    <t>2024 Maruti Suzuki Swift Launch Tomorrow: 5 Things You Need To Know</t>
-  </si>
-  <si>
-    <t>Detailed In 10 Images: Mahindra XUV 3XO MX2 Pro Variant Gallery</t>
-  </si>
-  <si>
-    <t>Top 15 Best-selling Indian Cars For April Detailed, Tata Punch Remains On Top</t>
+    <t>2024 Mahindra XUV 3XO vs Hyundai Venue: Which Turbo-petrol SUV Is Quicker?</t>
+  </si>
+  <si>
+    <t>2024 Maruti Suzuki Swift: Explore Its 6 Colour Options In Our Image Gallery</t>
+  </si>
+  <si>
+    <t>BMW 3 Series Gran Limousine Gets New Top-end Petrol Variant With Partial ADAS Suite</t>
   </si>
   <si>
     <t>TestCase-03</t>
@@ -65,6 +65,18 @@
 Driver, Passenger and Side Front</t>
   </si>
   <si>
+    <t>TestCase-04</t>
+  </si>
+  <si>
+    <t>Honda Activa 7G</t>
+  </si>
+  <si>
+    <t>Rs. 79,000</t>
+  </si>
+  <si>
+    <t>Expected Launch : Oct 2024</t>
+  </si>
+  <si>
     <t>TestCase-05</t>
   </si>
   <si>
@@ -82,35 +94,29 @@
   </si>
   <si>
     <t>Location
-No 2/520 East Coast at Madras Square Sundeep Road Sakthimoorthiamman Nagar Neelankara, Chennai, Tamil nadu, 600041</t>
+Nimmo Road Santhosi Nagar Santhome Mylapore, Chennai, Tamil nadu, 600004</t>
   </si>
   <si>
     <t>Location
-Meenambakka, Chennai, Tamil nadu, 600016</t>
+Airport Meenambakka, Chennai, Tamil nadu, 600043</t>
   </si>
   <si>
     <t>TestCase-07</t>
   </si>
   <si>
-    <t>106 Electric Car Charging Stations in Chennai</t>
+    <t>108 Electric Car Charging Stations in Chennai</t>
   </si>
   <si>
     <t>TestCase-08</t>
   </si>
   <si>
-    <t>Hyundai i10 2007-2010 Hyundai i10 Sportz 1.2</t>
-  </si>
-  <si>
-    <t>Tata Indica Tata Indica DLE</t>
-  </si>
-  <si>
-    <t>Hyundai i20 2015-2017 Hyundai i20 Asta 1.4 CRDi</t>
-  </si>
-  <si>
-    <t>TestCase-09</t>
-  </si>
-  <si>
-    <t>23,380</t>
+    <t>Maruti Dzire 2017-2020 Maruti Dzire 2017-2020 ZXI Plus</t>
+  </si>
+  <si>
+    <t>Tata Nexon 2020-2023 Tata Nexon XZ Plus DT HS</t>
+  </si>
+  <si>
+    <t>Honda WRV 2017-2020 Honda WRV 2017-2020 i-DTEC VX</t>
   </si>
   <si>
     <t>TestCase-10</t>
@@ -122,13 +128,13 @@
     <t>TestCase-12</t>
   </si>
   <si>
-    <t>TVS iQube</t>
-  </si>
-  <si>
     <t>Ather 450X</t>
   </si>
   <si>
     <t>Bajaj Chetak</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -196,25 +202,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -280,7 +291,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -293,37 +304,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>12</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -331,61 +342,89 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>14</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -395,35 +434,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/output/OutputData1.xlsx
+++ b/output/OutputData1.xlsx
@@ -14,14 +14,15 @@
     <sheet name="TC-06" r:id="rId8" sheetId="6"/>
     <sheet name="TC-07" r:id="rId9" sheetId="7"/>
     <sheet name="TC-08" r:id="rId10" sheetId="8"/>
-    <sheet name="TC-10" r:id="rId11" sheetId="9"/>
-    <sheet name="TC-12" r:id="rId12" sheetId="10"/>
+    <sheet name="TC-09" r:id="rId11" sheetId="9"/>
+    <sheet name="TC-10" r:id="rId12" sheetId="10"/>
+    <sheet name="TC-12" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>TestCase-01</t>
   </si>
@@ -32,13 +33,13 @@
     <t>TestCase-02</t>
   </si>
   <si>
-    <t>2024 Mahindra XUV 3XO vs Hyundai Venue: Which Turbo-petrol SUV Is Quicker?</t>
-  </si>
-  <si>
-    <t>2024 Maruti Suzuki Swift: Explore Its 6 Colour Options In Our Image Gallery</t>
-  </si>
-  <si>
-    <t>BMW 3 Series Gran Limousine Gets New Top-end Petrol Variant With Partial ADAS Suite</t>
+    <t>Royal Enfield Guerrilla 450 Likely To Be Launched Mid-July 2024</t>
+  </si>
+  <si>
+    <t>Mahindra XUV 3XO Effect? Tata Nexon New Entry-level Variants Launched At Rs 7.99 Lakh</t>
+  </si>
+  <si>
+    <t>Upcoming Bajaj CNG Bike Spotted Testing Again</t>
   </si>
   <si>
     <t>TestCase-03</t>
@@ -68,6 +69,27 @@
     <t>TestCase-04</t>
   </si>
   <si>
+    <t>Honda Activa Electric</t>
+  </si>
+  <si>
+    <t>Rs. 1.10 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Jun 2024</t>
+  </si>
+  <si>
+    <t>Honda Rebel 1100</t>
+  </si>
+  <si>
+    <t>Rs. 12.00 Lakh</t>
+  </si>
+  <si>
+    <t>Honda Rebel 500</t>
+  </si>
+  <si>
+    <t>Rs. 4.50 Lakh</t>
+  </si>
+  <si>
     <t>Honda Activa 7G</t>
   </si>
   <si>
@@ -75,6 +97,39 @@
   </si>
   <si>
     <t>Expected Launch : Oct 2024</t>
+  </si>
+  <si>
+    <t>Honda CB350 Cruiser</t>
+  </si>
+  <si>
+    <t>Rs. 2.30 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Nov 2024</t>
+  </si>
+  <si>
+    <t>Honda CB1000R</t>
+  </si>
+  <si>
+    <t>Rs. 14.46 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Dec 2024</t>
+  </si>
+  <si>
+    <t>Honda CL500 Scrambler</t>
+  </si>
+  <si>
+    <t>Rs. 6.00 Lakh</t>
+  </si>
+  <si>
+    <t>Honda CBR500R</t>
+  </si>
+  <si>
+    <t>Rs. 4.99 Lakh</t>
+  </si>
+  <si>
+    <t>Expected Launch : Unrevealed</t>
   </si>
   <si>
     <t>TestCase-05</t>
@@ -94,35 +149,46 @@
   </si>
   <si>
     <t>Location
-Nimmo Road Santhosi Nagar Santhome Mylapore, Chennai, Tamil nadu, 600004</t>
-  </si>
-  <si>
-    <t>Location
-Airport Meenambakka, Chennai, Tamil nadu, 600043</t>
+Ground Floor Bikes and Burgers Mahatma Gandhi Nagar Bhavani Nagar, Chennai, Tamil nadu, 600099</t>
+  </si>
+  <si>
+    <t>Contact
+8039513589</t>
   </si>
   <si>
     <t>TestCase-07</t>
   </si>
   <si>
-    <t>108 Electric Car Charging Stations in Chennai</t>
+    <t>110 Electric Car Charging Stations in Chennai</t>
   </si>
   <si>
     <t>TestCase-08</t>
   </si>
   <si>
-    <t>Maruti Dzire 2017-2020 Maruti Dzire 2017-2020 ZXI Plus</t>
-  </si>
-  <si>
-    <t>Tata Nexon 2020-2023 Tata Nexon XZ Plus DT HS</t>
-  </si>
-  <si>
-    <t>Honda WRV 2017-2020 Honda WRV 2017-2020 i-DTEC VX</t>
+    <t>Maruti Eeco Maruti Eeco 7 Seater STD BSVI</t>
+  </si>
+  <si>
+    <t>Honda City 2015-2017 Honda City i DTec VX Option</t>
+  </si>
+  <si>
+    <t>Hyundai Venue 2019-2022 Hyundai Venue SX Diesel</t>
+  </si>
+  <si>
+    <t>TestCase-09</t>
+  </si>
+  <si>
+    <t>23,380</t>
   </si>
   <si>
     <t>TestCase-10</t>
   </si>
   <si>
-    <t>Ground Clearance 165 mm Range 195 km/charge Charging Time 6.5 Hr Top Speed 120 km/Hr Motor Type Mid Drive IPM Battery Capacity 4 Kwh Fuel Type Electric Wheels Type Aluminium Alloy Tyre Type Tubeless</t>
+    <t>Top Speed
+120 km/Hr
+Tyre Type
+Tubeless
+Kerb Weight
+125 Kg</t>
   </si>
   <si>
     <t>TestCase-12</t>
@@ -202,6 +268,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -210,22 +299,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>26</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -291,7 +380,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -304,14 +393,92 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>10</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -327,12 +494,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -350,17 +517,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>15</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -378,12 +545,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -401,22 +568,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>20</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -434,12 +601,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>24</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/output/OutputData1.xlsx
+++ b/output/OutputData1.xlsx
@@ -33,13 +33,13 @@
     <t>TestCase-02</t>
   </si>
   <si>
+    <t>2024 Maruti Suzuki Swift: Check Out The One-Above-Base VXI Variant In 8 Images</t>
+  </si>
+  <si>
     <t>Royal Enfield Guerrilla 450 Likely To Be Launched Mid-July 2024</t>
   </si>
   <si>
     <t>Mahindra XUV 3XO Effect? Tata Nexon New Entry-level Variants Launched At Rs 7.99 Lakh</t>
-  </si>
-  <si>
-    <t>Upcoming Bajaj CNG Bike Spotted Testing Again</t>
   </si>
   <si>
     <t>TestCase-03</t>
@@ -149,11 +149,11 @@
   </si>
   <si>
     <t>Location
-Ground Floor Bikes and Burgers Mahatma Gandhi Nagar Bhavani Nagar, Chennai, Tamil nadu, 600099</t>
-  </si>
-  <si>
-    <t>Contact
-8039513589</t>
+No 2/520 East Coast at Madras Square Sundeep Road Sakthimoorthiamman Nagar Neelankara, Chennai, Tamil nadu, 600041</t>
+  </si>
+  <si>
+    <t>Location
+Meenambakka, Chennai, Tamil nadu, 600016</t>
   </si>
   <si>
     <t>TestCase-07</t>
@@ -165,13 +165,13 @@
     <t>TestCase-08</t>
   </si>
   <si>
-    <t>Maruti Eeco Maruti Eeco 7 Seater STD BSVI</t>
-  </si>
-  <si>
-    <t>Honda City 2015-2017 Honda City i DTec VX Option</t>
-  </si>
-  <si>
-    <t>Hyundai Venue 2019-2022 Hyundai Venue SX Diesel</t>
+    <t>Honda City 2008-2011 Honda City 1.5 S MT</t>
+  </si>
+  <si>
+    <t>Maruti Wagon R 2013-2022 Maruti Wagon R VXI BS IV</t>
+  </si>
+  <si>
+    <t>Renault KWID 2015-2019 Renault KWID 1.0 RXT</t>
   </si>
   <si>
     <t>TestCase-09</t>
